--- a/project/results/predict.xlsx
+++ b/project/results/predict.xlsx
@@ -440,232 +440,232 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2146643251180649</v>
+        <v>0.5569046139717102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5597972869873047</v>
+        <v>0.1434527486562729</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.002134977374225855</v>
+        <v>0.01783792674541473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8124805092811584</v>
+        <v>0.01019353233277798</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.03444076701998711</v>
+        <v>0.3399162292480469</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.6974610686302185</v>
+        <v>0.01168196089565754</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8217112421989441</v>
+        <v>0.5545511841773987</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.893929901797264e-09</v>
+        <v>0.9968284368515015</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.003814461408182979</v>
+        <v>0.1923366636037827</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01548958010971546</v>
+        <v>0.9564236402511597</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9025465250015259</v>
+        <v>5.045094439992681e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.8983264565467834</v>
+        <v>0.01685344614088535</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9607011675834656</v>
+        <v>0.3021994829177856</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.114942591584622e-07</v>
+        <v>0.01507395226508379</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8072696328163147</v>
+        <v>0.007515153847634792</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1665475964546204</v>
+        <v>0.3275718092918396</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.398758886494988e-10</v>
+        <v>0.4151321947574615</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.08635034412145615</v>
+        <v>0.5851039290428162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.7986830472946167</v>
+        <v>0.008874722756445408</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9958162307739258</v>
+        <v>0.992275595664978</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9967421293258667</v>
+        <v>0.3104658126831055</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.2057839632034302</v>
+        <v>0.09984193742275238</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8.282516716917598e-08</v>
+        <v>0.227761834859848</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0.9977126717567444</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.8365507125854492</v>
+        <v>0.06992135941982269</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.5271204710006714</v>
+        <v>0.1421850621700287</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.7534144520759583</v>
+        <v>3.474944969639182e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.5785418748855591</v>
+        <v>0.02527997270226479</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.09327059239149094</v>
+        <v>3.330284016556107e-06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9755129218101501</v>
+        <v>0.6505842208862305</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.5700786709785461</v>
+        <v>2.73262139671715e-06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9999455213546753</v>
+        <v>0.1548335403203964</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.6550812721252441</v>
+        <v>0.1490481495857239</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9489842057228088</v>
+        <v>0.02117185853421688</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.880378874830058e-08</v>
+        <v>0.7154791951179504</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.0008059837855398655</v>
+        <v>0.3500561714172363</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.8205579519271851</v>
+        <v>0.6042501330375671</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.634501055671535e-08</v>
+        <v>0.2668061554431915</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8.690464710525703e-06</v>
+        <v>0.5861169695854187</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9800898432731628</v>
+        <v>0.1460331678390503</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9006668925285339</v>
+        <v>0.3531599342823029</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.001500884303823113</v>
+        <v>2.887787741201464e-05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.01312727481126785</v>
+        <v>0.01785883866250515</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.7730410695075989</v>
+        <v>0.7613255381584167</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.5888189673423767</v>
+        <v>0.0007831932161934674</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.1405571401119232</v>
+        <v>0.2121541351079941</v>
       </c>
     </row>
   </sheetData>
